--- a/Archive/Nueva carpeta/Embalaje Drops (8).xlsx
+++ b/Archive/Nueva carpeta/Embalaje Drops (8).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JFROJAS\Desktop\Facturacion\Archive\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6147F-74CD-4357-B06F-4DF649C64F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B92A29-149C-436D-B5C6-B5C6D80CFC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="2295" windowWidth="14055" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Embalaje Drops" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Reporte de Embalaje Drops</t>
   </si>
@@ -131,39 +131,6 @@
   </si>
   <si>
     <t>1112948642</t>
-  </si>
-  <si>
-    <t>Hieler S</t>
-  </si>
-  <si>
-    <t>Q y R</t>
-  </si>
-  <si>
-    <t>H Mds</t>
-  </si>
-  <si>
-    <t>L:P</t>
-  </si>
-  <si>
-    <t>H 60</t>
-  </si>
-  <si>
-    <t>J:K</t>
-  </si>
-  <si>
-    <t>C MDS</t>
-  </si>
-  <si>
-    <t>D:I</t>
-  </si>
-  <si>
-    <t>HIELO SEC</t>
-  </si>
-  <si>
-    <t>AC TOTAL</t>
-  </si>
-  <si>
-    <t>SUMA 4</t>
   </si>
 </sst>
 </file>
@@ -314,11 +281,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -327,16 +291,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF23"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:D8"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -816,48 +783,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:32" ht="35.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:32" ht="8.4499999999999993" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:32" ht="4.1500000000000004" customHeight="1"/>
     <row r="5" spans="1:32" ht="2.4500000000000002" customHeight="1">
@@ -899,11 +866,11 @@
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
@@ -946,10 +913,10 @@
       <c r="R7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="11"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
@@ -991,11 +958,11 @@
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="5">
         <v>45024</v>
       </c>
@@ -1038,10 +1005,10 @@
       <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11"/>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10"/>
       <c r="U8" s="6">
         <v>0</v>
       </c>
@@ -1083,11 +1050,11 @@
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="5">
         <v>45041</v>
       </c>
@@ -1130,10 +1097,10 @@
       <c r="R9" s="6">
         <v>1</v>
       </c>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11"/>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10"/>
       <c r="U9" s="6">
         <v>0</v>
       </c>
@@ -1175,11 +1142,11 @@
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="5">
         <v>45025</v>
       </c>
@@ -1222,10 +1189,10 @@
       <c r="R10" s="6">
         <v>2</v>
       </c>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11"/>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10"/>
       <c r="U10" s="6">
         <v>0</v>
       </c>
@@ -1267,11 +1234,11 @@
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="5">
         <v>45040</v>
       </c>
@@ -1314,10 +1281,10 @@
       <c r="R11" s="6">
         <v>2</v>
       </c>
-      <c r="S11" s="14">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11"/>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10"/>
       <c r="U11" s="6">
         <v>0</v>
       </c>
@@ -1359,11 +1326,11 @@
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="5">
         <v>45043</v>
       </c>
@@ -1406,10 +1373,10 @@
       <c r="R12" s="6">
         <v>2</v>
       </c>
-      <c r="S12" s="14">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11"/>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10"/>
       <c r="U12" s="6">
         <v>0</v>
       </c>
@@ -1450,81 +1417,42 @@
     <row r="13" spans="1:32" ht="0" hidden="1" customHeight="1"/>
     <row r="14" spans="1:32" ht="6" customHeight="1"/>
     <row r="15" spans="1:32">
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-    </row>
-    <row r="18" spans="18:19">
-      <c r="R18" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="18:19">
-      <c r="R19" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="18:19">
-      <c r="R20" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="18:19">
-      <c r="R21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="18:19">
-      <c r="R22" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="18:19">
-      <c r="S23" t="s">
-        <v>46</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:S2"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="B9:D9"/>
@@ -1533,12 +1461,6 @@
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="S11:T11"/>
-    <mergeCell ref="D1:S2"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="S8:T8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.3346236220472401" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
